--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EC8C4-EE57-415F-9D01-4DB755A69F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365AE89-ABB6-43A8-9E95-32F9E52BDF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -467,6 +467,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -602,7 +609,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,13 +693,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -867,9 +885,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1144,7 +1162,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1993,10 +2011,10 @@
         <v>78</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="31">
         <v>0</v>
       </c>
       <c r="J29" s="9" t="str">
@@ -2080,10 +2098,10 @@
         <v>78</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="31">
         <v>0</v>
       </c>
       <c r="J32" s="9" t="str">
@@ -2140,7 +2158,7 @@
         <v>79</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="23" t="s">
         <v>89</v>
       </c>
       <c r="I34" s="8">
@@ -2229,10 +2247,10 @@
         <v>79</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="31">
         <v>0</v>
       </c>
       <c r="J37" s="9" t="str">
@@ -2260,10 +2278,10 @@
         <v>79</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="31">
         <v>0</v>
       </c>
       <c r="J38" s="9" t="str">
@@ -2307,11 +2325,11 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I21 I23 I26 I8">
-    <cfRule type="containsText" dxfId="20" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I21 I23 I26 I8">
+  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I21 I23 I26 I8">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2324,11 +2342,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
+  <conditionalFormatting sqref="I7 I4 I9 I11 I13 I16 I19 I22 I25 I28 I30">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2341,7 +2359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2358,7 +2376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2375,7 +2393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2392,12 +2410,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2426,7 +2444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2443,7 +2461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2460,7 +2478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2477,7 +2495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2494,7 +2512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2511,7 +2529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2528,7 +2546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2545,7 +2563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2562,7 +2580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2579,7 +2597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2596,7 +2614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365AE89-ABB6-43A8-9E95-32F9E52BDF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D34A1-B822-405A-BCCD-50B6C93D75E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,6 +103,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="I21" authorId="1" shapeId="0" xr:uid="{B4BFA370-8661-4D9D-A128-602E413278C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Дубли не UNC</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -336,9 +351,6 @@
     <t>18.061.940</t>
   </si>
   <si>
-    <t>UNICEF</t>
-  </si>
-  <si>
     <t>Medical Research</t>
   </si>
   <si>
@@ -394,6 +406,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>75th Anniversary - UNICEF</t>
   </si>
 </sst>
 </file>
@@ -678,6 +693,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,9 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1162,7 +1177,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1180,19 +1195,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1202,8 +1217,8 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1232,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>25</v>
@@ -1242,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="19" t="s">
@@ -1271,7 +1286,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="19" t="s">
@@ -1300,7 +1315,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>65</v>
@@ -1331,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="19" t="s">
@@ -1360,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="19" t="s">
@@ -1389,7 +1404,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="19" t="s">
@@ -1418,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="19" t="s">
@@ -1447,7 +1462,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="19" t="s">
@@ -1476,7 +1491,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="19" t="s">
@@ -1505,7 +1520,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="19" t="s">
@@ -1534,7 +1549,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="19" t="s">
@@ -1563,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="19" t="s">
@@ -1592,7 +1607,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>67</v>
@@ -1623,14 +1638,14 @@
         <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="19" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1652,7 +1667,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="19" t="s">
@@ -1681,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>68</v>
@@ -1712,7 +1727,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="19" t="s">
@@ -1741,7 +1756,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>69</v>
@@ -1772,18 +1787,18 @@
         <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="24">
-        <v>1</v>
+      <c r="I21" s="25">
+        <v>2</v>
       </c>
       <c r="J21" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1801,7 +1816,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="19" t="s">
@@ -1830,7 +1845,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="19" t="s">
@@ -1859,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>70</v>
@@ -1890,14 +1905,14 @@
         <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1919,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="19" t="s">
@@ -1948,7 +1963,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>71</v>
@@ -1979,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="19" t="s">
@@ -2008,13 +2023,13 @@
         <v>20</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="26">
         <v>0</v>
       </c>
       <c r="J29" s="9" t="str">
@@ -2037,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="19" t="s">
@@ -2066,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="19" t="s">
@@ -2085,7 +2100,7 @@
         <v>2020</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22" t="s">
@@ -2095,13 +2110,13 @@
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="26">
         <v>0</v>
       </c>
       <c r="J32" s="9" t="str">
@@ -2114,7 +2129,7 @@
         <v>2021</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22" t="s">
@@ -2124,14 +2139,14 @@
         <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="9" t="str">
         <f t="shared" ref="J33:J34" si="7">IF(OR(AND(I33&gt;1,I33&lt;&gt;"-")),"Can exchange","")</f>
@@ -2143,10 +2158,10 @@
         <v>2021</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>42</v>
@@ -2155,13 +2170,13 @@
         <v>20</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="8">
+        <v>88</v>
+      </c>
+      <c r="I34" s="26">
         <v>0</v>
       </c>
       <c r="J34" s="9" t="str">
@@ -2174,7 +2189,7 @@
         <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22" t="s">
@@ -2184,14 +2199,14 @@
         <v>20</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="9" t="str">
         <f t="shared" ref="J35:J39" si="8">IF(OR(AND(I35&gt;1,I35&lt;&gt;"-")),"Can exchange","")</f>
@@ -2203,7 +2218,7 @@
         <v>2022</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22" t="s">
@@ -2213,14 +2228,14 @@
         <v>20</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="9" t="str">
         <f t="shared" si="8"/>
@@ -2232,10 +2247,10 @@
         <v>2022</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>42</v>
@@ -2244,13 +2259,13 @@
         <v>20</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="31">
+        <v>90</v>
+      </c>
+      <c r="I37" s="26">
         <v>0</v>
       </c>
       <c r="J37" s="9" t="str">
@@ -2263,10 +2278,10 @@
         <v>2023</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>42</v>
@@ -2275,13 +2290,13 @@
         <v>20</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="31">
+        <v>90</v>
+      </c>
+      <c r="I38" s="26">
         <v>0</v>
       </c>
       <c r="J38" s="9" t="str">
@@ -2294,7 +2309,7 @@
         <v>2023</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22" t="s">
@@ -2304,14 +2319,14 @@
         <v>20</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="9" t="str">
         <f t="shared" si="8"/>
@@ -2324,13 +2339,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I21 I23 I26 I8">
-    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I21 I23 I26 I8">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2342,12 +2357,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="20" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7 I4 I9 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2359,11 +2374,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2375,13 +2407,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2392,12 +2424,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2409,17 +2446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2431,7 +2458,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2443,12 +2475,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2460,13 +2492,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2477,12 +2509,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2494,13 +2594,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2511,97 +2611,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2613,13 +2628,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D34A1-B822-405A-BCCD-50B6C93D75E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED2B15A-05BE-4037-A12B-6D1D50B6C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,15 +717,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -900,9 +892,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1177,7 +1169,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2030,7 +2022,7 @@
         <v>40</v>
       </c>
       <c r="I29" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2177,7 +2169,7 @@
         <v>88</v>
       </c>
       <c r="I34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="9" t="str">
         <f t="shared" si="7"/>
@@ -2266,7 +2258,7 @@
         <v>90</v>
       </c>
       <c r="I37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="9" t="str">
         <f t="shared" si="8"/>
@@ -2297,7 +2289,7 @@
         <v>90</v>
       </c>
       <c r="I38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="9" t="str">
         <f t="shared" si="8"/>
@@ -2340,11 +2332,11 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2357,11 +2349,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="20" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I4 I9 I11 I13 I16 I19 I22 I25 I28 I30">
+  <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2374,7 +2366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2391,7 +2383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2408,7 +2400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2425,12 +2417,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2459,7 +2451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2476,7 +2468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2493,7 +2485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2510,7 +2502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,7 +2519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2544,7 +2536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2629,7 +2621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED2B15A-05BE-4037-A12B-6D1D50B6C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770D69C1-76E3-4956-8FBD-CD6C97AC861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,11 +37,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Пользователь Windows</author>
     <author>Lord_Alexator</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{0449A71D-3EAE-48F4-8BAB-6756158D3F12}">
       <text>
         <r>
           <rPr>
@@ -52,12 +52,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Suomen Rahapaja
-(Finland (Vantaa) mint)</t>
+          <t>Monnaie de Paris
+(Paris mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{3A750E96-0451-4D46-B2FF-A20CC3B3F817}">
       <text>
         <r>
           <rPr>
@@ -68,8 +68,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Suomen Rahapaja
-(Finland (Vantaa) mint)</t>
+          <t>Monnaie de Paris
+(Paris mint)</t>
         </r>
       </text>
     </comment>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="101">
   <si>
     <t>Year</t>
   </si>
@@ -137,12 +137,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>50th Anniversary - Signing of the Treaty of Rome</t>
   </si>
   <si>
@@ -195,12 +189,6 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
-  </si>
-  <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
-    <t>FI</t>
   </si>
   <si>
     <t>9.406.875</t>
@@ -315,9 +303,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>5.000</t>
   </si>
   <si>
@@ -372,18 +357,6 @@
     <t>2023 Rugby World Cup</t>
   </si>
   <si>
-    <t>Subtype_5</t>
-  </si>
-  <si>
-    <t>Racing Marianne</t>
-  </si>
-  <si>
-    <t>Genius and the discus throw</t>
-  </si>
-  <si>
-    <t>Sower</t>
-  </si>
-  <si>
     <t>2024 Summer Olympics series</t>
   </si>
   <si>
@@ -409,6 +382,51 @@
   </si>
   <si>
     <t>75th Anniversary - UNICEF</t>
+  </si>
+  <si>
+    <t>Sprinting Marianne</t>
+  </si>
+  <si>
+    <t>Genius and discus throwing</t>
+  </si>
+  <si>
+    <t>Hercules and wrestling match</t>
+  </si>
+  <si>
+    <t>Sower and fistfight</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_4#Mint_Symbol_B</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_A</t>
+  </si>
+  <si>
+    <t>Subtype_5#Coloured_part</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -675,9 +693,6 @@
     <xf numFmtId="3" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,13 +726,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -726,6 +744,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1163,23 +1189,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
     <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
-    <col min="3" max="4" width="36.453125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="10" customWidth="1"/>
+    <col min="3" max="6" width="35.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.453125" style="10" customWidth="1"/>
     <col min="9" max="9" width="3.81640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" style="10" customWidth="1"/>
@@ -1187,19 +1211,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1209,28 +1233,28 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>25</v>
+        <v>95</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -1239,21 +1263,23 @@
         <v>2007</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -1268,23 +1294,23 @@
         <v>2008</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="24">
+        <v>23</v>
+      </c>
+      <c r="I4" s="23">
         <v>1</v>
       </c>
       <c r="J4" s="9" t="str">
@@ -1297,26 +1323,26 @@
         <v>2008</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1328,21 +1354,23 @@
         <v>2009</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -1357,21 +1385,21 @@
         <v>2010</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
@@ -1386,23 +1414,23 @@
         <v>2011</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="25">
+        <v>26</v>
+      </c>
+      <c r="I8" s="24">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="str">
@@ -1415,23 +1443,23 @@
         <v>2012</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
         <v>42</v>
       </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="24">
+        <v>27</v>
+      </c>
+      <c r="I9" s="23">
         <v>1</v>
       </c>
       <c r="J9" s="9" t="str">
@@ -1444,23 +1472,25 @@
         <v>2012</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>42</v>
+        <v>98</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="25">
+        <v>28</v>
+      </c>
+      <c r="I10" s="24">
         <v>2</v>
       </c>
       <c r="J10" s="9" t="str">
@@ -1473,21 +1503,23 @@
         <v>2013</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
@@ -1502,21 +1534,21 @@
         <v>2013</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
@@ -1531,21 +1563,21 @@
         <v>2014</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
@@ -1560,21 +1592,21 @@
         <v>2014</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I14" s="8">
         <v>1</v>
@@ -1589,26 +1621,26 @@
         <v>2014</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1620,21 +1652,21 @@
         <v>2015</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8">
         <v>1</v>
@@ -1649,21 +1681,21 @@
         <v>2015</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
@@ -1678,26 +1710,26 @@
         <v>2015</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="shared" ref="J18" si="3">IF(OR(AND(I18&gt;1,I18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1709,21 +1741,23 @@
         <v>2015</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
@@ -1738,26 +1772,28 @@
         <v>2015</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J20" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1769,23 +1805,23 @@
         <v>2016</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="25">
+        <v>33</v>
+      </c>
+      <c r="I21" s="24">
         <v>2</v>
       </c>
       <c r="J21" s="9" t="str">
@@ -1798,21 +1834,21 @@
         <v>2016</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -1827,21 +1863,21 @@
         <v>2017</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1856,26 +1892,26 @@
         <v>2017</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J24" s="9" t="str">
         <f t="shared" ref="J24" si="4">IF(OR(AND(I24&gt;1,I24&lt;&gt;"-")),"Can exchange","")</f>
@@ -1887,21 +1923,21 @@
         <v>2017</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I25" s="8">
         <v>1</v>
@@ -1916,21 +1952,21 @@
         <v>2018</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I26" s="8">
         <v>1</v>
@@ -1945,26 +1981,26 @@
         <v>2018</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J27" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1976,21 +2012,21 @@
         <v>2018</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I28" s="8">
         <v>1</v>
@@ -2005,23 +2041,23 @@
         <v>2019</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="26">
+      <c r="H29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="25">
         <v>1</v>
       </c>
       <c r="J29" s="9" t="str">
@@ -2034,21 +2070,21 @@
         <v>2019</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
@@ -2063,21 +2099,21 @@
         <v>2020</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I31" s="8">
         <v>1</v>
@@ -2092,23 +2128,23 @@
         <v>2020</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="26">
+      <c r="H32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="25">
         <v>0</v>
       </c>
       <c r="J32" s="9" t="str">
@@ -2121,21 +2157,21 @@
         <v>2021</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>42</v>
+        <v>85</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I33" s="8">
         <v>1</v>
@@ -2152,23 +2188,23 @@
       <c r="B34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>42</v>
+      <c r="C34" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="26">
+      <c r="H34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="25">
         <v>1</v>
       </c>
       <c r="J34" s="9" t="str">
@@ -2181,21 +2217,21 @@
         <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I35" s="8">
         <v>1</v>
@@ -2210,21 +2246,23 @@
         <v>2022</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I36" s="8">
         <v>1</v>
@@ -2239,25 +2277,25 @@
         <v>2022</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="26">
+      <c r="H37" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="25">
         <v>1</v>
       </c>
       <c r="J37" s="9" t="str">
@@ -2270,25 +2308,25 @@
         <v>2023</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="26">
+      <c r="H38" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="25">
         <v>1</v>
       </c>
       <c r="J38" s="9" t="str">
@@ -2301,27 +2339,58 @@
         <v>2023</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I39" s="8">
         <v>1</v>
       </c>
       <c r="J39" s="9" t="str">
         <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="25">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9" t="str">
+        <f t="shared" ref="J40" si="9">IF(OR(AND(I40&gt;1,I40&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2332,12 +2401,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="containsText" dxfId="20" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2349,12 +2418,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="19" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2366,12 +2435,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2383,11 +2452,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2399,12 +2485,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2416,17 +2519,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2438,7 +2536,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2450,13 +2553,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2467,13 +2570,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2484,12 +2587,114 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2501,131 +2706,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="I40">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2660,13 +2746,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2674,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2685,10 +2771,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2696,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2707,10 +2793,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2718,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2729,10 +2815,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770D69C1-76E3-4956-8FBD-CD6C97AC861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C6449-F968-4AD7-B073-2998219A1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{5BDCF04F-C7A6-4A7A-A8C8-A60DC1B196CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Дубли не UNC</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I8" authorId="1" shapeId="0" xr:uid="{BC586052-93C9-4617-A543-A4E09F318929}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Дубли не UNC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="1" shapeId="0" xr:uid="{E7061D95-2687-4C4E-85D6-2699762E370A}">
       <text>
         <r>
           <rPr>
@@ -642,7 +672,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,14 +732,14 @@
     <xf numFmtId="3" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,16 +756,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -918,9 +961,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1195,7 +1238,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1250,7 +1293,7 @@
       <c r="G2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="25" t="s">
         <v>90</v>
       </c>
       <c r="I2" s="20" t="s">
@@ -1311,11 +1354,11 @@
         <v>23</v>
       </c>
       <c r="I4" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="9" t="str">
         <f t="shared" ref="J4:J6" si="1">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1373,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1430,7 +1473,7 @@
       <c r="H8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="str">
@@ -1460,11 +1503,11 @@
         <v>27</v>
       </c>
       <c r="I9" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1490,7 +1533,7 @@
       <c r="H10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>2</v>
       </c>
       <c r="J10" s="9" t="str">
@@ -1551,7 +1594,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1821,7 +1864,7 @@
       <c r="H21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <v>2</v>
       </c>
       <c r="J21" s="9" t="str">
@@ -2057,7 +2100,7 @@
       <c r="H29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <v>1</v>
       </c>
       <c r="J29" s="9" t="str">
@@ -2144,7 +2187,7 @@
       <c r="H32" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="24">
         <v>0</v>
       </c>
       <c r="J32" s="9" t="str">
@@ -2204,7 +2247,7 @@
       <c r="H34" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <v>1</v>
       </c>
       <c r="J34" s="9" t="str">
@@ -2295,7 +2338,7 @@
       <c r="H37" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="24">
         <v>1</v>
       </c>
       <c r="J37" s="9" t="str">
@@ -2326,7 +2369,7 @@
       <c r="H38" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="24">
         <v>1</v>
       </c>
       <c r="J38" s="9" t="str">
@@ -2386,7 +2429,7 @@
       <c r="H40" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="24">
         <v>0</v>
       </c>
       <c r="J40" s="9" t="str">
@@ -2401,12 +2444,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="containsText" dxfId="21" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2417,13 +2460,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
+    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2435,12 +2478,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2452,11 +2495,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2468,12 +2528,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2485,17 +2562,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I27">
     <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2507,7 +2579,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2519,13 +2596,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2536,13 +2613,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2553,12 +2630,114 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2570,131 +2749,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="I40">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2706,12 +2766,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C6449-F968-4AD7-B073-2998219A1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5D4C31-FF79-4D58-885D-04DB0E7E2CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,6 +764,15 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -778,15 +787,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -961,9 +961,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1238,7 +1238,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1325,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="9" t="str">
         <f t="shared" ref="J3" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
@@ -2448,7 +2448,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2465,7 +2465,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
+  <conditionalFormatting sqref="I11 I7 I13 I16 I19 I22 I25 I28 I30">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2767,7 +2767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2784,7 +2784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5D4C31-FF79-4D58-885D-04DB0E7E2CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086AE57D-FA4A-4406-AF97-4EAFEC9D8F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="102">
   <si>
     <t>Year</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Eiffel Tower</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,31 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -961,9 +988,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1232,13 +1259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2188,7 +2215,7 @@
         <v>36</v>
       </c>
       <c r="I32" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="9" t="str">
         <f t="shared" ref="J32" si="6">IF(OR(AND(I32&gt;1,I32&lt;&gt;"-")),"Can exchange","")</f>
@@ -2430,10 +2457,39 @@
         <v>79</v>
       </c>
       <c r="I40" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="9" t="str">
         <f t="shared" ref="J40" si="9">IF(OR(AND(I40&gt;1,I40&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9" t="str">
+        <f t="shared" ref="J41" si="10">IF(OR(AND(I41&gt;1,I41&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2444,12 +2500,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2461,12 +2517,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11 I7 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2478,11 +2534,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="23" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="22" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2494,12 +2584,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="21" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="20" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2511,12 +2606,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2528,17 +2635,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I31">
     <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2550,8 +2652,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2562,29 +2669,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2596,13 +2686,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2613,13 +2703,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2630,12 +2720,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2647,13 +2737,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2664,12 +2754,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
     <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2681,12 +2788,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2698,46 +2822,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2749,13 +2839,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2766,29 +2856,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086AE57D-FA4A-4406-AF97-4EAFEC9D8F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF1095-65F0-4A85-B9E5-CAE65B49EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
   <si>
     <t>Year</t>
   </si>
@@ -460,13 +460,22 @@
   </si>
   <si>
     <t>Eiffel Tower</t>
+  </si>
+  <si>
+    <t>24.014.000</t>
+  </si>
+  <si>
+    <t>2025 Summer Olympics series</t>
+  </si>
+  <si>
+    <t>Obv: Coloured gardenia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -543,6 +552,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -765,23 +778,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -798,6 +795,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -988,9 +993,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1259,13 +1264,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2484,13 +2489,44 @@
         <v>73</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="22"/>
+      <c r="H41" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="I41" s="8">
         <v>0</v>
       </c>
       <c r="J41" s="9" t="str">
         <f t="shared" ref="J41" si="10">IF(OR(AND(I41&gt;1,I41&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2499,13 +2535,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="containsText" dxfId="26" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2517,12 +2554,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="I11 I7 I13 I16 I19 I22 I25 I28 I30">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2534,11 +2571,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="24" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="22" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2550,13 +2604,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="23" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2567,12 +2621,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="22" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2584,17 +2643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="21" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="20" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2606,7 +2655,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="18" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2618,12 +2672,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2635,13 +2689,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2652,12 +2706,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="14" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2669,13 +2791,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2686,13 +2808,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2703,46 +2825,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2754,13 +2842,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="I40">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2771,46 +2859,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2822,12 +2876,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2839,13 +2893,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2856,12 +2910,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
+  <conditionalFormatting sqref="I42">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2884,7 +2938,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF1095-65F0-4A85-B9E5-CAE65B49EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9CE0C-8F71-4E31-8237-0F2567A87690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -780,14 +780,6 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -795,6 +787,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -993,9 +993,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1270,7 +1270,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2493,7 +2493,7 @@
         <v>102</v>
       </c>
       <c r="I41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="9" t="str">
         <f t="shared" ref="J41" si="10">IF(OR(AND(I41&gt;1,I41&lt;&gt;"-")),"Can exchange","")</f>
@@ -2541,7 +2541,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
+  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2558,7 +2558,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11 I7 I13 I16 I19 I22 I25 I28 I30">
+  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2911,7 +2911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9CE0C-8F71-4E31-8237-0F2567A87690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CFACD-F2F9-49F8-A7DC-573CB5468D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -119,21 +119,6 @@
       </text>
     </comment>
     <comment ref="I10" authorId="1" shapeId="0" xr:uid="{E545AB7B-867B-4DCD-A148-4A803331A475}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Дубли не UNC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I21" authorId="1" shapeId="0" xr:uid="{B4BFA370-8661-4D9D-A128-602E413278C1}">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1255,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2541,7 +2526,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2558,7 +2543,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
+  <conditionalFormatting sqref="I11 I7 I13 I16 I19 I22 I25 I28 I30">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CFACD-F2F9-49F8-A7DC-573CB5468D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DA793-D155-452E-8BF8-39EF108A80FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="107">
   <si>
     <t>Year</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>Obv: Coloured gardenia</t>
+  </si>
+  <si>
+    <t>Louvre museum</t>
+  </si>
+  <si>
+    <t>315.000</t>
   </si>
 </sst>
 </file>
@@ -763,7 +769,39 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -978,9 +1016,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1249,13 +1287,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2514,6 +2552,58 @@
         <v>58</v>
       </c>
     </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="24">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9" t="str">
+        <f t="shared" ref="J43:J44" si="11">IF(OR(AND(I43&gt;1,I43&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="24">
+        <v>1</v>
+      </c>
+      <c r="J44" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -2522,11 +2612,28 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
+  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
+    <cfRule type="containsText" dxfId="28" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2538,13 +2645,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="24" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11 I7 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="27" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2555,12 +2662,51 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="26" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="25" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2572,12 +2718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="22" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="I24">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2589,12 +2730,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2606,18 +2764,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2628,24 +2781,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="18" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2657,12 +2798,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2674,12 +2815,114 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2691,80 +2934,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="14" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2776,46 +2951,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2827,29 +2968,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2861,12 +2985,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I42">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2878,12 +3002,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
+  <conditionalFormatting sqref="I43">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2895,12 +3019,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
+  <conditionalFormatting sqref="I44">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I44))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2923,7 +3047,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DA793-D155-452E-8BF8-39EF108A80FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCDEA1A-1CAC-49D4-9A52-C40E9CABC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -420,15 +423,6 @@
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>Subtype_4#Mint_Symbol_B</t>
-  </si>
-  <si>
-    <t>Subtype_2#Mint_Symbol_A</t>
-  </si>
-  <si>
-    <t>Subtype_5#Coloured_part</t>
-  </si>
-  <si>
     <t>Treaty of Rome</t>
   </si>
   <si>
@@ -460,6 +454,15 @@
   </si>
   <si>
     <t>315.000</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_5#Coloured</t>
   </si>
 </sst>
 </file>
@@ -547,6 +550,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -679,7 +684,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +756,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,14 +777,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="28">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -793,23 +802,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1016,9 +1008,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1287,41 +1279,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
-    <col min="3" max="6" width="35.6328125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="24.36328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="3.81640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="10" customWidth="1"/>
+    <col min="3" max="7" width="33.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="3.6328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="10" customWidth="1"/>
     <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1331,22 +1320,24 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>84</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>90</v>
@@ -1364,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>38</v>
@@ -1455,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>38</v>
@@ -1570,7 +1561,7 @@
         <v>2012</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>6</v>
@@ -1842,7 +1833,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>38</v>
@@ -1873,7 +1864,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>38</v>
@@ -2344,7 +2335,7 @@
         <v>2022</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>75</v>
@@ -2497,7 +2488,7 @@
         <v>2024</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>77</v>
@@ -2513,7 +2504,7 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I41" s="8">
         <v>1</v>
@@ -2528,10 +2519,10 @@
         <v>2024</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>38</v>
@@ -2543,7 +2534,7 @@
         <v>73</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>61</v>
@@ -2557,7 +2548,7 @@
         <v>2025</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
@@ -2571,7 +2562,7 @@
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I43" s="24">
         <v>1</v>
@@ -2604,19 +2595,29 @@
         <v/>
       </c>
     </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
-    <cfRule type="containsText" dxfId="29" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I23 I26 I8 I21">
+  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I23 I26 I8 I21">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2629,11 +2630,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
-    <cfRule type="containsText" dxfId="28" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I11 I13 I16 I19 I22 I25 I28 I30">
+  <conditionalFormatting sqref="I11 I7 I13 I16 I19 I22 I25 I28 I30">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2646,7 +2647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="27" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2663,7 +2664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="26" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2680,7 +2681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="25" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2697,12 +2698,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2731,7 +2732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2748,7 +2749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2765,7 +2766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2782,7 +2783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2799,7 +2800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2816,7 +2817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2833,7 +2834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2850,7 +2851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2867,7 +2868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2884,7 +2885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2901,7 +2902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2918,7 +2919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2935,7 +2936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2952,7 +2953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2969,7 +2970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2986,7 +2987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3003,7 +3004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3020,7 +3021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I44))))</formula>
     </cfRule>
   </conditionalFormatting>
